--- a/Excels/CreateNewAccount.xlsx
+++ b/Excels/CreateNewAccount.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqduy\git\demo-guru\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="10830" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10830"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,20 +35,19 @@
     <t>iniDeposit</t>
   </si>
   <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>accountID</t>
+  </si>
+  <si>
     <t>Savings</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>accountID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,22 +81,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -114,10 +113,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -152,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -187,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -281,21 +280,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +311,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -364,27 +363,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
-    <col min="4" max="4" style="4" width="9.140625" collapsed="true"/>
-    <col min="5" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="4" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -398,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -418,7 +417,7 @@
         <v>90216</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1500</v>
@@ -430,7 +429,7 @@
         <v>90216</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>1000</v>
@@ -450,7 +449,7 @@
       <c r="D5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excels/CreateNewAccount.xlsx
+++ b/Excels/CreateNewAccount.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>customerID</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>accountID</t>
-  </si>
-  <si>
-    <t>Savings</t>
   </si>
 </sst>
 </file>
@@ -374,7 +371,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A3" sqref="A3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,42 +407,18 @@
       <c r="C2" s="1">
         <v>1000</v>
       </c>
-      <c r="D2"/>
+      <c r="D2">
+        <v>84915</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>90216</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1500</v>
-      </c>
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>90216</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1000</v>
-      </c>
       <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>90216</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1900</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5"/>
     </row>
   </sheetData>

--- a/Excels/CreateNewAccount.xlsx
+++ b/Excels/CreateNewAccount.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqduy\git\demo-guru\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10830"/>
+    <workbookView windowHeight="10830" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,6 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,22 +79,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -110,10 +111,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -148,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -183,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -277,21 +278,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -308,7 +309,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -360,15 +361,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D5"/>
@@ -376,11 +377,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="4" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="4" max="4" style="4" width="9.140625" collapsed="true"/>
+    <col min="5" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -422,7 +423,7 @@
       <c r="D5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>